--- a/items/complete_spr2.xlsx
+++ b/items/complete_spr2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Maik/Library/Mobile Documents/com~apple~CloudDocs/Studium/xx. Python/GUI_experiment/items/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2E710BB-84B7-B54A-8169-ECA55D2B879A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199524CA-0ADE-9E42-AFB7-1F0C80D3771B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="4880" windowWidth="27240" windowHeight="16040" xr2:uid="{E06E3205-A926-C54C-80B9-2DF88364E23C}"/>
+    <workbookView xWindow="700" yWindow="6300" windowWidth="27240" windowHeight="16040" xr2:uid="{E06E3205-A926-C54C-80B9-2DF88364E23C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>item</t>
   </si>
@@ -66,6 +66,21 @@
   </si>
   <si>
     <t>dass die Schiffe der neue Schlepper zieht</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>kinder?</t>
+  </si>
+  <si>
+    <t>autos?</t>
+  </si>
+  <si>
+    <t>mädchen?</t>
+  </si>
+  <si>
+    <t>schiffe?</t>
   </si>
 </sst>
 </file>
@@ -417,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2FE223-3372-5A4B-907C-829E5250D378}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,7 +443,7 @@
     <col min="1" max="1" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,8 +456,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -455,8 +473,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -469,8 +490,11 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -483,8 +507,11 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -496,6 +523,9 @@
       </c>
       <c r="D5" t="s">
         <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
